--- a/Documentation/Wilson Thrust BOM v3 Grip LEDs.xlsx
+++ b/Documentation/Wilson Thrust BOM v3 Grip LEDs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noahm\Documents\GitHub\WilsonThrust510\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE388D1C-09AD-43FE-B103-4C7E396768F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0ACB69-78F3-4B16-ABF8-714FEE18A848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C99EEBEB-5120-4843-8B17-4416EAFBA3F3}"/>
+    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{C99EEBEB-5120-4843-8B17-4416EAFBA3F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Large PCB Parts" sheetId="1" r:id="rId1"/>
@@ -1200,6 +1200,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1212,6 +1221,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1226,21 +1241,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1559,7 +1559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BCF817-8F85-4AC7-830C-DC635E268E92}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
@@ -1599,15 +1599,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
     </row>
     <row r="3" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -1653,15 +1653,15 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="42" t="s">
         <v>271</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
     </row>
     <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -1684,15 +1684,15 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="42" t="s">
         <v>272</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
     </row>
     <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -1716,15 +1716,15 @@
       <c r="G8" s="36"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="42" t="s">
         <v>273</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
     </row>
     <row r="10" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -1747,15 +1747,15 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="42" t="s">
         <v>274</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
     </row>
     <row r="12" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -1858,15 +1858,15 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="42" t="s">
         <v>275</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
     </row>
     <row r="18" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
@@ -2145,15 +2145,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
     </row>
     <row r="3" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -2217,15 +2217,15 @@
       <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
     </row>
     <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -2270,15 +2270,15 @@
       <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
     </row>
     <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -2302,15 +2302,15 @@
       <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="42" t="s">
         <v>239</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
     </row>
     <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -2357,15 +2357,15 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
     </row>
     <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -2389,15 +2389,15 @@
       <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="42" t="s">
         <v>240</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
     </row>
     <row r="17" spans="1:7" ht="92.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -2418,7 +2418,7 @@
       <c r="F17" s="6">
         <v>8.69</v>
       </c>
-      <c r="G17" s="42" t="s">
+      <c r="G17" s="45" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2441,7 +2441,7 @@
       <c r="F18" s="6">
         <v>14.62</v>
       </c>
-      <c r="G18" s="42"/>
+      <c r="G18" s="45"/>
     </row>
     <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
@@ -2513,15 +2513,15 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
     </row>
     <row r="23" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
@@ -2547,15 +2547,15 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
     </row>
     <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
@@ -2623,15 +2623,15 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="42" t="s">
         <v>235</v>
       </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
     </row>
     <row r="29" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
@@ -2754,9 +2754,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{686073A0-D06A-4A43-B3C7-39882209510A}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2794,15 +2794,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
     </row>
     <row r="3" spans="1:7" ht="195" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -2828,15 +2828,15 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
     </row>
     <row r="5" spans="1:7" ht="89.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
@@ -2862,15 +2862,15 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -2894,15 +2894,15 @@
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
     </row>
     <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -2928,15 +2928,15 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
     </row>
     <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -2962,15 +2962,15 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
     </row>
     <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -2996,60 +2996,60 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
     </row>
     <row r="15" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="43">
+      <c r="A15" s="48">
         <v>3</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="49" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="50" t="s">
         <v>172</v>
       </c>
-      <c r="D15" s="45" t="s">
+      <c r="D15" s="50" t="s">
         <v>176</v>
       </c>
       <c r="E15" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="F15" s="46">
+      <c r="F15" s="51">
         <v>13.49</v>
       </c>
-      <c r="G15" s="47" t="s">
+      <c r="G15" s="52" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="26" customFormat="1" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
       <c r="E16" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="F16" s="46"/>
-      <c r="G16" s="47"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="52"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
@@ -3094,15 +3094,15 @@
       <c r="G19" s="12"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="42" t="s">
         <v>192</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
     </row>
     <row r="21" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
@@ -3174,15 +3174,15 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
     </row>
     <row r="25" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
@@ -3208,15 +3208,15 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="42" t="s">
         <v>209</v>
       </c>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
     </row>
     <row r="27" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
@@ -3242,15 +3242,15 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="42" t="s">
         <v>188</v>
       </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
     </row>
     <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
@@ -3276,15 +3276,15 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="42" t="s">
         <v>179</v>
       </c>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
     </row>
     <row r="31" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
@@ -3305,7 +3305,7 @@
       <c r="F31" s="6">
         <v>4.6900000000000004</v>
       </c>
-      <c r="G31" s="48" t="s">
+      <c r="G31" s="46" t="s">
         <v>186</v>
       </c>
     </row>
@@ -3328,18 +3328,18 @@
       <c r="F32" s="6">
         <v>5.16</v>
       </c>
-      <c r="G32" s="49"/>
+      <c r="G32" s="47"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="39" t="s">
+      <c r="A33" s="42" t="s">
         <v>264</v>
       </c>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
     </row>
     <row r="34" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
@@ -3365,15 +3365,15 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="39" t="s">
+      <c r="A35" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
@@ -3458,12 +3458,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A26:G26"/>
     <mergeCell ref="A35:G35"/>
     <mergeCell ref="A12:G12"/>
     <mergeCell ref="A14:G14"/>
@@ -3480,6 +3474,12 @@
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A26:G26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E7" r:id="rId1" xr:uid="{EF6854EA-9FC9-4FFA-B284-7464CDC602EE}"/>
@@ -3550,15 +3550,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -3752,15 +3752,15 @@
       <c r="G13" s="12"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -3847,15 +3847,15 @@
       <c r="G18" s="12"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
     </row>
     <row r="20" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
@@ -3877,15 +3877,15 @@
       <c r="G20" s="18"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
     </row>
     <row r="22" spans="1:7" s="20" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
@@ -3906,12 +3906,12 @@
       <c r="F22" s="22">
         <v>3.58</v>
       </c>
-      <c r="G22" s="51" t="s">
+      <c r="G22" s="40" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="50">
+      <c r="A23" s="39">
         <v>1</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -3929,7 +3929,7 @@
       <c r="F23" s="6">
         <v>5.49</v>
       </c>
-      <c r="G23" s="52" t="s">
+      <c r="G23" s="41" t="s">
         <v>280</v>
       </c>
     </row>
@@ -3956,11 +3956,11 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E25" s="5"/>
-      <c r="G25" s="42"/>
+      <c r="G25" s="45"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E26" s="5"/>
-      <c r="G26" s="42"/>
+      <c r="G26" s="45"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D27" s="13"/>
